--- a/AuxInfo/外设总表.xlsx
+++ b/AuxInfo/外设总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLibrary\CurvedFire-Railgun\AuxInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D0F93-EADB-45C4-BBF0-CD0269F61702}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5EFEF9-8D1C-49A3-9321-874B0B07C807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,14 @@
   </si>
   <si>
     <t>PF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1 CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1 CH2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -865,7 +873,7 @@
         <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,7 +887,7 @@
         <v>45</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -897,5 +905,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AuxInfo/外设总表.xlsx
+++ b/AuxInfo/外设总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLibrary\CurvedFire-Railgun\AuxInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5EFEF9-8D1C-49A3-9321-874B0B07C807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C46DED2-B706-43AA-88B2-1C150453F23E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,18 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通IO(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA7.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通IO(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +218,18 @@
   </si>
   <si>
     <t>0+1 CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对串口(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -831,10 +831,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -844,7 +844,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -853,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -867,13 +867,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,13 +881,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AuxInfo/外设总表.xlsx
+++ b/AuxInfo/外设总表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLibrary\CurvedFire-Railgun\AuxInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C46DED2-B706-43AA-88B2-1C150453F23E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D6BBD9-C5E8-43F2-9A20-63AB3105FC7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,128 +59,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TFT-LCD显示屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PF11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接口分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>触摸(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示(20)
-背光采用硬件控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD9</t>
-  </si>
-  <si>
-    <t>PD10</t>
-  </si>
-  <si>
-    <t>PD14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD15</t>
-  </si>
-  <si>
-    <t>PE7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE8</t>
-  </si>
-  <si>
-    <t>PE9</t>
-  </si>
-  <si>
-    <t>PE10</t>
-  </si>
-  <si>
-    <t>PE11</t>
-  </si>
-  <si>
-    <t>PE12</t>
-  </si>
-  <si>
-    <t>PE13</t>
-  </si>
-  <si>
-    <t>PE14</t>
-  </si>
-  <si>
-    <t>PE15</t>
-  </si>
-  <si>
-    <t>触摸(5)+LCD显示(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>串口通信 1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>串口通信(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +116,30 @@
   </si>
   <si>
     <t>PA3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4寸HMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U3串口通信 1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U1串口通信 1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U2串口通信 1+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,19 +183,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D30"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -587,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -597,311 +501,124 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D2:D26"/>
-    <mergeCell ref="B7:B26"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D27:D28"/>
+  <mergeCells count="9">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AuxInfo/外设总表.xlsx
+++ b/AuxInfo/外设总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLibrary\CurvedFire-Railgun\AuxInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D6BBD9-C5E8-43F2-9A20-63AB3105FC7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB2986B-6762-49CB-9695-B2E56D92A4F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PA10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,11 +131,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U1串口通信 1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>U2串口通信 1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能接口 1 + U1串口通信 1+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -518,7 +518,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -527,20 +527,20 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -549,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -563,13 +563,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,48 +577,48 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
